--- a/AlarmReportWeb/dataview/outputs/short_stop_summary.xlsx
+++ b/AlarmReportWeb/dataview/outputs/short_stop_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,6 +1324,2258 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>96</v>
+      </c>
+      <c r="E22" t="n">
+        <v>73</v>
+      </c>
+      <c r="F22" t="n">
+        <v>123</v>
+      </c>
+      <c r="G22" t="n">
+        <v>90</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1597</v>
+      </c>
+      <c r="J22" t="n">
+        <v>58</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>33</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44674</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>71</v>
+      </c>
+      <c r="E23" t="n">
+        <v>147</v>
+      </c>
+      <c r="F23" t="n">
+        <v>217</v>
+      </c>
+      <c r="G23" t="n">
+        <v>222</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1812</v>
+      </c>
+      <c r="J23" t="n">
+        <v>15</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>68</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44675</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>39</v>
+      </c>
+      <c r="E24" t="n">
+        <v>201</v>
+      </c>
+      <c r="F24" t="n">
+        <v>122</v>
+      </c>
+      <c r="G24" t="n">
+        <v>63</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1754</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>32</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>62</v>
+      </c>
+      <c r="E25" t="n">
+        <v>153</v>
+      </c>
+      <c r="F25" t="n">
+        <v>125</v>
+      </c>
+      <c r="G25" t="n">
+        <v>40</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1829</v>
+      </c>
+      <c r="J25" t="n">
+        <v>30</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>39</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>81</v>
+      </c>
+      <c r="E26" t="n">
+        <v>245</v>
+      </c>
+      <c r="F26" t="n">
+        <v>126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>91</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1695</v>
+      </c>
+      <c r="J26" t="n">
+        <v>34</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>40</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>77</v>
+      </c>
+      <c r="E27" t="n">
+        <v>211</v>
+      </c>
+      <c r="F27" t="n">
+        <v>170</v>
+      </c>
+      <c r="G27" t="n">
+        <v>52</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1862</v>
+      </c>
+      <c r="J27" t="n">
+        <v>36</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>127</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>54</v>
+      </c>
+      <c r="E28" t="n">
+        <v>206</v>
+      </c>
+      <c r="F28" t="n">
+        <v>117</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J28" t="n">
+        <v>28</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>50</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>128</v>
+      </c>
+      <c r="F29" t="n">
+        <v>194</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1911</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>42</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>15</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3315</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2256</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>48</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>87</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2669</v>
+      </c>
+      <c r="J32" t="n">
+        <v>33</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>72</v>
+      </c>
+      <c r="E33" t="n">
+        <v>60</v>
+      </c>
+      <c r="F33" t="n">
+        <v>148</v>
+      </c>
+      <c r="G33" t="n">
+        <v>18</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2119</v>
+      </c>
+      <c r="J33" t="n">
+        <v>39</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>38</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>79</v>
+      </c>
+      <c r="E34" t="n">
+        <v>263</v>
+      </c>
+      <c r="F34" t="n">
+        <v>135</v>
+      </c>
+      <c r="G34" t="n">
+        <v>180</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2278</v>
+      </c>
+      <c r="J34" t="n">
+        <v>36</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>64</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>70</v>
+      </c>
+      <c r="E35" t="n">
+        <v>134</v>
+      </c>
+      <c r="F35" t="n">
+        <v>156</v>
+      </c>
+      <c r="G35" t="n">
+        <v>89</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2175</v>
+      </c>
+      <c r="J35" t="n">
+        <v>29</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>75</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>92</v>
+      </c>
+      <c r="E36" t="n">
+        <v>66</v>
+      </c>
+      <c r="F36" t="n">
+        <v>106</v>
+      </c>
+      <c r="G36" t="n">
+        <v>162</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2437</v>
+      </c>
+      <c r="J36" t="n">
+        <v>31</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>61</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44688</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>30</v>
+      </c>
+      <c r="E37" t="n">
+        <v>40</v>
+      </c>
+      <c r="F37" t="n">
+        <v>163</v>
+      </c>
+      <c r="G37" t="n">
+        <v>21</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2323</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>23</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>78</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>123</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3443</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>23</v>
+      </c>
+      <c r="E39" t="n">
+        <v>52</v>
+      </c>
+      <c r="F39" t="n">
+        <v>133</v>
+      </c>
+      <c r="G39" t="n">
+        <v>17</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2398</v>
+      </c>
+      <c r="J39" t="n">
+        <v>24</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>38</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>99</v>
+      </c>
+      <c r="E40" t="n">
+        <v>110</v>
+      </c>
+      <c r="F40" t="n">
+        <v>109</v>
+      </c>
+      <c r="G40" t="n">
+        <v>89</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2266</v>
+      </c>
+      <c r="J40" t="n">
+        <v>37</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>44</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>76</v>
+      </c>
+      <c r="E41" t="n">
+        <v>94</v>
+      </c>
+      <c r="F41" t="n">
+        <v>155</v>
+      </c>
+      <c r="G41" t="n">
+        <v>92</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1955</v>
+      </c>
+      <c r="J41" t="n">
+        <v>47</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>120</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>62</v>
+      </c>
+      <c r="E42" t="n">
+        <v>163</v>
+      </c>
+      <c r="F42" t="n">
+        <v>138</v>
+      </c>
+      <c r="G42" t="n">
+        <v>71</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1659</v>
+      </c>
+      <c r="J42" t="n">
+        <v>64</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>72</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>70</v>
+      </c>
+      <c r="E43" t="n">
+        <v>224</v>
+      </c>
+      <c r="F43" t="n">
+        <v>84</v>
+      </c>
+      <c r="G43" t="n">
+        <v>77</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1561</v>
+      </c>
+      <c r="J43" t="n">
+        <v>61</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>70</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44695</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>66</v>
+      </c>
+      <c r="E44" t="n">
+        <v>113</v>
+      </c>
+      <c r="F44" t="n">
+        <v>126</v>
+      </c>
+      <c r="G44" t="n">
+        <v>56</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1177</v>
+      </c>
+      <c r="J44" t="n">
+        <v>13</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>126</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>81</v>
+      </c>
+      <c r="E45" t="n">
+        <v>65</v>
+      </c>
+      <c r="F45" t="n">
+        <v>167</v>
+      </c>
+      <c r="G45" t="n">
+        <v>54</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>349</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>75</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>54</v>
+      </c>
+      <c r="E46" t="n">
+        <v>56</v>
+      </c>
+      <c r="F46" t="n">
+        <v>195</v>
+      </c>
+      <c r="G46" t="n">
+        <v>41</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>645</v>
+      </c>
+      <c r="J46" t="n">
+        <v>33</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>61</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>86</v>
+      </c>
+      <c r="E47" t="n">
+        <v>107</v>
+      </c>
+      <c r="F47" t="n">
+        <v>131</v>
+      </c>
+      <c r="G47" t="n">
+        <v>115</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>467</v>
+      </c>
+      <c r="J47" t="n">
+        <v>33</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>140</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>106</v>
+      </c>
+      <c r="E48" t="n">
+        <v>154</v>
+      </c>
+      <c r="F48" t="n">
+        <v>97</v>
+      </c>
+      <c r="G48" t="n">
+        <v>255</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1270</v>
+      </c>
+      <c r="J48" t="n">
+        <v>30</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>125</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>105</v>
+      </c>
+      <c r="E49" t="n">
+        <v>232</v>
+      </c>
+      <c r="F49" t="n">
+        <v>73</v>
+      </c>
+      <c r="G49" t="n">
+        <v>217</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>735</v>
+      </c>
+      <c r="J49" t="n">
+        <v>27</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>177</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>142</v>
+      </c>
+      <c r="E50" t="n">
+        <v>220</v>
+      </c>
+      <c r="F50" t="n">
+        <v>122</v>
+      </c>
+      <c r="G50" t="n">
+        <v>295</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>773</v>
+      </c>
+      <c r="J50" t="n">
+        <v>15</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>120</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44702</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>86</v>
+      </c>
+      <c r="E51" t="n">
+        <v>294</v>
+      </c>
+      <c r="F51" t="n">
+        <v>108</v>
+      </c>
+      <c r="G51" t="n">
+        <v>237</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>816</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>48</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>54</v>
+      </c>
+      <c r="E52" t="n">
+        <v>52</v>
+      </c>
+      <c r="F52" t="n">
+        <v>100</v>
+      </c>
+      <c r="G52" t="n">
+        <v>92</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1622</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>66</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>29</v>
+      </c>
+      <c r="E53" t="n">
+        <v>115</v>
+      </c>
+      <c r="F53" t="n">
+        <v>96</v>
+      </c>
+      <c r="G53" t="n">
+        <v>51</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1193</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>72</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>86</v>
+      </c>
+      <c r="E54" t="n">
+        <v>83</v>
+      </c>
+      <c r="F54" t="n">
+        <v>85</v>
+      </c>
+      <c r="G54" t="n">
+        <v>184</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1032</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>50</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>69</v>
+      </c>
+      <c r="E55" t="n">
+        <v>274</v>
+      </c>
+      <c r="F55" t="n">
+        <v>68</v>
+      </c>
+      <c r="G55" t="n">
+        <v>153</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1090</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>66</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>60</v>
+      </c>
+      <c r="E56" t="n">
+        <v>233</v>
+      </c>
+      <c r="F56" t="n">
+        <v>171</v>
+      </c>
+      <c r="G56" t="n">
+        <v>164</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1209</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>179</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>61</v>
+      </c>
+      <c r="E57" t="n">
+        <v>218</v>
+      </c>
+      <c r="F57" t="n">
+        <v>102</v>
+      </c>
+      <c r="G57" t="n">
+        <v>153</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1297</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>163</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44709</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>56</v>
+      </c>
+      <c r="E58" t="n">
+        <v>88</v>
+      </c>
+      <c r="F58" t="n">
+        <v>46</v>
+      </c>
+      <c r="G58" t="n">
+        <v>136</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1304</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>23</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44710</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>63</v>
+      </c>
+      <c r="E59" t="n">
+        <v>59</v>
+      </c>
+      <c r="F59" t="n">
+        <v>89</v>
+      </c>
+      <c r="G59" t="n">
+        <v>133</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1233</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>26</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>51</v>
+      </c>
+      <c r="E60" t="n">
+        <v>114</v>
+      </c>
+      <c r="F60" t="n">
+        <v>58</v>
+      </c>
+      <c r="G60" t="n">
+        <v>158</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1274</v>
+      </c>
+      <c r="J60" t="n">
+        <v>31</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>135</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>90</v>
+      </c>
+      <c r="E61" t="n">
+        <v>77</v>
+      </c>
+      <c r="F61" t="n">
+        <v>80</v>
+      </c>
+      <c r="G61" t="n">
+        <v>130</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1648</v>
+      </c>
+      <c r="J61" t="n">
+        <v>52</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>90</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{'ss_count': 102, 'total': 108, 'detail': {'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102], 'from STOP': ['00:04:33', '00:08:31', '00:16:33', '00:19:38', '00:25:11', '00:34:58', '01:00:54', '01:26:50', '01:43:10', '03:04:18', '03:20:55', '04:56:01', '05:13:08', '05:15:37', '05:25:12', '05:29:27', '06:11:30', '06:13:55', '06:16:18', '06:18:26', '06:38:47', '06:48:43', '06:55:24', '07:09:39', '07:11:49', '07:14:16', '07:20:18', '07:30:45', '07:33:31', '07:33:35', '07:56:37', '08:01:35', '08:12:36', '08:26:29', '08:27:00', '08:34:10', '08:56:13', '09:15:06', '10:04:06', '10:08:38', '10:22:39', '14:18:25', '14:27:28', '14:29:37', '14:32:31', '14:39:03', '14:41:02', '14:53:22', '14:55:23', '14:57:43', '14:57:46', '15:02:50', '15:04:42', '15:26:14', '16:04:54', '16:08:47', '16:36:36', '16:48:03', '16:52:16', '16:58:21', '17:18:56', '17:25:38', '17:30:27', '17:32:08', '17:35:39', '17:55:39', '19:17:41', '19:29:59', '19:33:07', '19:39:17', '19:44:19', '19:46:31', '19:50:49', '19:56:11', '19:58:10', '20:00:49', '20:01:26', '20:03:48', '20:05:18', '20:07:22', '20:14:30', '20:19:51', '20:27:33', '22:07:07', '22:08:24', '22:10:07', '22:12:59', '22:14:08', '22:15:30', '22:17:50', '22:19:09', '22:27:14', '22:30:45', '22:57:07', '23:01:24', '23:02:20', '23:24:31', '23:28:23', '23:30:20', '23:50:36', '23:55:24', '23:57:20'], 'to RUN': ['00:04:35', '00:08:31', '00:16:47', '00:20:06', '00:25:46', '00:35:17', '01:01:09', '01:26:53', '01:46:08', '03:06:00', '03:21:10', '04:58:51', '05:13:23', '05:16:34', '05:25:44', '05:29:32', '06:12:10', '06:14:20', '06:16:33', '06:18:33', '06:39:07', '06:48:47', '06:55:48', '07:09:54', '07:12:23', '07:14:38', '07:20:34', '07:31:21', '07:33:35', '07:42:55', '07:57:07', '08:02:45', '08:12:55', '08:26:44', '08:32:12', '08:35:05', '08:57:52', '09:19:03', '10:04:06', '10:08:46', '10:22:49', '14:25:36', '14:27:28', '14:30:36', '14:37:00', '14:39:06', '14:41:27', '14:53:37', '14:55:35', '14:57:46', '15:02:50', '15:04:42', '15:08:43', '15:26:22', '16:04:55', '16:08:50', '16:40:37', '16:51:44', '16:56:55', '17:00:21', '17:19:53', '17:26:00', '17:30:52', '17:32:15', '17:36:39', '17:55:47', '19:18:01', '19:31:07', '19:35:29', '19:39:35', '19:44:31', '19:46:31', '19:51:43', '19:56:18', '19:58:14', '20:00:49', '20:01:48', '20:04:48', '20:06:32', '20:08:01', '20:14:33', '20:19:52', '20:27:33', '22:08:06', '22:09:59', '22:12:29', '22:14:00', '22:14:30', '22:16:30', '22:18:28', '22:19:45', '22:27:44', '22:30:45', '23:01:16', '23:02:16', '23:03:50', '23:26:23', '23:28:25', '23:30:24', '23:51:27', '23:55:28', '23:57:33']}}</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>{'ss_count': 207, 'total': 213, 'detail': {'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207], 'from STOP': ['00:02:18', '00:04:33', '00:06:34', '00:08:43', '00:14:57', '00:21:20', '00:27:46', '00:31:49', '00:34:10', '00:35:51', '00:38:13', '00:40:27', '00:42:44', '00:44:54', '00:47:05', '00:55:26', '00:57:32', '01:03:43', '01:06:03', '01:08:17', '01:10:25', '01:14:56', '01:17:13', '01:19:25', '01:21:40', '01:32:08', '01:34:12', '01:36:43', '01:39:37', '01:44:02', '01:46:38', '01:48:55', '03:02:20', '03:04:36', '03:21:34', '03:26:09', '04:04:14', '04:10:34', '04:15:04', '04:19:26', '04:21:21', '04:31:46', '04:33:56', '04:38:12', '04:42:18', '04:46:37', '04:50:52', '04:55:04', '04:57:23', '05:01:48', '05:03:53', '05:06:19', '05:08:30', '05:10:49', '05:15:17', '05:17:36', '05:19:48', '05:24:42', '06:21:41', '07:04:20', '07:20:58', '07:25:16', '07:32:16', '07:32:20', '07:34:34', '07:41:02', '07:55:38', '08:01:00', '08:11:35', '08:15:59', '08:41:13', '08:43:21', '08:45:33', '08:48:05', '08:50:18', '08:52:30', '09:03:25', '09:05:54', '09:07:50', '09:22:58', '10:07:24', '10:31:36', '10:59:40', '11:00:10', '11:05:45', '11:18:30', '11:24:44', '11:27:04', '11:33:19', '11:40:46', '11:45:05', '11:51:26', '12:25:27', '12:27:39', '12:31:56', '12:45:59', '12:48:43', '12:53:05', '12:56:35', '13:05:00', '13:07:07', '13:11:34', '13:25:10', '14:21:47', '14:28:16', '14:28:21', '14:36:32', '14:40:55', '14:45:09', '14:51:07', '14:53:41', '14:55:54', '15:02:12', '15:02:35', '15:09:00', '15:09:05', '15:13:46', '15:16:03', '15:18:35', '15:23:05', '15:30:08', '15:34:18', '15:39:05', '15:41:16', '15:43:43', '15:45:43', '15:52:04', '15:56:24', '16:00:53', '16:03:02', '16:10:01', '16:14:20', '16:16:47', '16:25:10', '16:28:35', '16:30:52', '16:31:35', '16:33:44', '16:38:55', '16:41:11', '16:43:29', '16:46:10', '16:48:28', '16:50:36', '17:06:16', '17:08:25', '17:12:39', '17:18:58', '17:23:13', '17:27:31', '17:29:45', '17:36:16', '17:38:55', '17:41:16', '17:47:16', '18:59:04', '19:01:36', '19:06:36', '19:08:37', '19:10:33', '19:12:54', '19:15:09', '19:17:11', '19:21:29', '19:25:42', '19:27:56', '19:29:11', '19:33:22', '19:35:32', '19:39:41', '19:41:50', '19:46:09', '19:48:21', '19:50:27', '19:58:41', '20:02:52', '20:05:18', '20:13:27', '20:15:36', '20:19:48', '20:22:04', '20:38:15', '20:44:07', '20:51:51', '20:57:38', '21:01:03', '21:08:10', '21:12:56', '21:15:23', '21:15:26', '21:22:06', '21:26:16', '21:42:35', '21:48:31', '22:02:38', '22:11:08', '22:15:31', '22:40:27', '23:05:50', '23:05:58', '23:10:50', '23:21:26', '23:38:15', '23:42:30', '23:44:42', '23:46:47', '23:49:15'], 'to RUN': ['00:02:18', '00:04:33', '00:06:49', '00:08:50', '00:15:20', '00:27:31', '00:28:08', '00:32:09', '00:35:46', '00:36:06', '00:38:29', '00:40:36', '00:42:52', '00:44:54', '00:49:20', '00:55:26', '00:57:41', '01:04:05', '01:06:27', '01:08:25', '01:10:40', '01:15:11', '01:17:28', '01:19:43', '01:30:00', '01:32:08', '01:34:22', '01:36:45', '01:41:55', '01:44:17', '01:46:45', '01:48:57', '03:02:23', '03:04:51', '03:21:49', '03:26:24', '04:04:29', '04:10:56', '04:15:04', '04:19:26', '04:21:36', '04:32:01', '04:33:57', '04:39:07', '04:42:30', '04:46:55', '04:51:07', '04:55:22', '04:57:33', '05:01:48', '05:04:03', '05:06:19', '05:08:33', '05:13:23', '05:15:22', '05:17:36', '05:19:48', '05:24:57', '06:21:56', '07:04:43', '07:20:58', '07:25:16', '07:32:20', '07:34:34', '07:38:55', '07:41:09', '07:56:10', '08:01:15', '08:11:59', '08:16:06', '08:41:15', '08:43:42', '08:45:55', '08:48:07', '08:50:33', '08:52:44', '09:03:47', '09:05:54', '09:08:05', '09:23:13', '10:07:47', '10:32:01', '10:59:55', '11:00:10', '11:10:04', '11:18:45', '11:24:59', '11:27:11', '11:33:34', '11:41:04', '11:45:16', '11:52:42', '12:25:31', '12:27:58', '12:32:10', '12:46:36', '12:49:06', '12:53:20', '12:56:44', '13:05:01', '13:07:18', '13:11:38', '13:25:19', '14:22:03', '14:28:21', '14:32:31', '14:36:39', '14:41:55', '14:45:53', '14:51:45', '14:53:51', '14:56:09', '15:02:29', '15:02:50', '15:09:05', '15:11:50', '15:14:04', '15:16:37', '15:18:51', '15:24:37', '15:32:06', '15:36:23', '15:39:20', '15:41:35', '15:43:50', '15:45:46', '15:52:07', '15:59:15', '16:01:09', '16:03:09', '16:12:20', '16:14:35', '16:17:21', '16:28:18', '16:29:10', '16:30:52', '16:31:44', '16:33:45', '16:39:11', '16:41:28', '16:43:33', '16:46:28', '16:48:28', '16:51:59', '17:06:27', '17:08:28', '17:12:52', '17:19:14', '17:23:21', '17:27:38', '17:32:15', '17:36:58', '17:39:05', '17:41:16', '17:47:26', '19:00:33', '19:02:36', '19:07:52', '19:08:51', '19:10:41', '19:12:59', '19:15:09', '19:17:27', '19:21:31', '19:25:49', '19:28:17', '19:29:14', '19:33:37', '19:35:33', '19:40:03', '19:41:55', '19:46:31', '19:48:31', '19:50:29', '19:58:44', '20:02:55', '20:05:18', '20:13:31', '20:15:58', '20:20:48', '20:22:07', '20:38:37', '20:44:59', '20:52:07', '20:58:58', '21:01:03', '21:08:16', '21:12:57', '21:15:26', '21:17:55', '21:22:06', '21:32:19', '21:46:23', '21:49:24', '22:07:05', '22:14:35', '22:15:39', '22:40:44', '23:05:52', '23:06:12', '23:17:40', '23:22:52', '23:38:22', '23:42:33', '23:44:42', '23:47:12', '23:58:51']}}</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>{'ss_count': 140, 'total': 150, 'detail': {'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140], 'from STOP': ['00:11:06', '00:19:19', '00:46:09', '01:00:54', '03:03:33', '03:06:00', '03:26:09', '03:31:17', '05:01:33', '05:04:23', '05:05:41', '05:05:47', '05:14:02', '06:16:18', '06:37:01', '06:51:35', '06:57:04', '07:16:17', '07:19:11', '07:22:09', '07:24:21', '07:28:28', '07:31:05', '07:38:03', '07:41:03', '07:43:55', '07:46:34', '07:58:35', '08:04:20', '08:06:16', '08:07:42', '08:10:07', '08:13:58', '08:20:44', '08:23:11', '08:35:05', '08:42:48', '08:46:25', '08:47:15', '09:01:35', '09:04:24', '09:10:32', '09:11:09', '09:12:23', '09:13:59', '09:18:26', '09:19:33', '09:20:46', '09:24:28', '09:27:40', '09:31:52', '09:32:50', '09:37:26', '09:39:38', '09:41:48', '09:44:07', '09:45:38', '09:47:35', '09:49:55', '09:52:17', '09:52:24', '11:10:57', '11:13:31', '11:31:44', '11:47:51', '11:54:36', '11:55:51', '11:56:43', '12:07:10', '12:08:30', '12:09:08', '12:12:31', '12:13:09', '12:13:47', '12:15:40', '12:16:09', '12:18:33', '12:25:27', '12:26:12', '12:29:30', '12:38:26', '12:40:03', '12:41:34', '12:42:56', '12:45:21', '12:49:44', '12:51:20', '12:52:00', '12:52:31', '12:53:47', '12:54:52', '12:58:05', '12:59:42', '13:01:13', '13:09:21', '13:09:45', '13:13:38', '13:24:17', '13:26:19', '13:28:34', '13:31:49', '13:36:17', '13:44:47', '14:12:17', '14:18:49', '14:23:19', '14:43:54', '14:44:47', '14:53:22', '15:16:19', '16:10:01', '16:34:46', '16:46:45', '17:01:31', '17:35:33', '17:36:39', '17:39:28', '19:01:04', '19:02:06', '19:13:45', '19:25:36', '19:36:02', '19:36:48', '20:04:34', '20:28:08', '20:28:43', '20:53:26', '21:12:56', '21:25:43', '21:27:46', '21:28:20', '21:35:15', '21:41:06', '22:40:34', '22:47:39', '22:51:58', '23:24:07', '23:36:20', '23:39:26', '23:43:41'], 'to RUN': ['00:15:20', '00:23:52', '00:46:13', '01:07:23', '03:03:42', '03:06:15', '03:27:48', '03:33:02', '05:02:04', '05:05:26', '05:05:41', '05:05:56', '05:14:21', '06:18:44', '06:37:53', '06:51:51', '06:58:05', '07:16:47', '07:20:18', '07:22:09', '07:25:32', '07:28:43', '07:37:52', '07:38:18', '07:41:09', '07:43:55', '07:46:50', '08:03:00', '08:06:01', '08:07:20', '08:09:34', '08:10:07', '08:14:13', '08:21:16', '08:28:03', '08:40:01', '08:44:19', '08:46:32', '08:55:15', '09:02:11', '09:06:21', '09:10:36', '09:11:46', '09:13:22', '09:17:21', '09:19:03', '09:19:34', '09:21:08', '09:24:42', '09:28:10', '09:32:13', '09:33:05', '09:39:02', '09:39:54', '09:41:54', '09:44:17', '09:45:44', '09:47:50', '09:50:14', '09:52:24', '09:54:14', '11:11:03', '11:13:46', '11:33:19', '11:53:59', '11:54:51', '11:56:06', '11:56:43', '12:07:10', '12:08:30', '12:09:45', '12:13:09', '12:13:47', '12:15:40', '12:15:44', '12:16:24', '12:23:29', '12:25:27', '12:26:35', '12:33:45', '12:38:41', '12:40:18', '12:41:34', '12:43:06', '12:49:21', '12:50:39', '12:51:20', '12:52:03', '12:52:41', '12:54:02', '12:55:21', '12:58:19', '12:59:57', '13:01:49', '13:09:29', '13:09:45', '13:14:31', '13:24:21', '13:26:34', '13:29:27', '13:33:02', '13:36:47', '13:46:03', '14:14:56', '14:22:21', '14:23:22', '14:43:54', '14:51:07', '14:59:55', '15:25:29', '16:10:12', '16:35:43', '16:46:56', '17:01:33', '17:35:42', '17:36:41', '17:39:47', '19:01:36', '19:02:36', '19:14:03', '19:33:41', '19:36:25', '19:37:17', '20:06:07', '20:28:08', '20:29:38', '21:00:02', '21:12:56', '21:25:46', '21:27:46', '21:28:34', '21:35:15', '21:41:06', '22:41:27', '22:47:48', '22:56:10', '23:24:29', '23:37:03', '23:39:28', '23:52:53']}}</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>{'ss_count': 160, 'total': 169, 'detail': {'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160], 'from STOP': ['00:09:05', '00:10:57', '01:16:19', '01:29:45', '01:36:03', '01:41:04', '01:49:31', '03:08:51', '03:10:27', '03:20:11', '03:38:32', '03:51:35', '04:35:52', '04:39:52', '04:43:21', '04:49:32', '04:51:16', '04:53:41', '04:58:12', '04:58:35', '05:12:30', '05:22:46', '05:58:56', '06:10:30', '06:13:09', '06:36:54', '06:49:58', '06:56:20', '06:57:41', '06:59:27', '07:01:01', '07:06:26', '07:31:22', '07:40:32', '07:46:34', '08:01:40', '08:16:21', '08:35:20', '08:44:56', '09:00:22', '09:02:33', '09:07:28', '09:15:30', '09:18:49', '09:21:24', '09:40:34', '09:41:45', '09:42:08', '09:42:29', '09:45:34', '09:50:27', '09:53:04', '09:58:17', '10:01:00', '10:03:49', '10:06:33', '10:09:45', '10:12:30', '10:14:00', '10:16:31', '10:20:11', '10:21:40', '10:24:14', '10:25:11', '10:25:13', '10:31:32', '10:36:43', '10:51:45', '10:58:36', '11:02:45', '13:33:46', '13:54:33', '15:28:15', '15:45:46', '15:49:52', '16:05:23', '16:35:43', '16:36:53', '16:44:10', '16:45:19', '16:49:55', '16:50:16', '16:51:33', '17:19:18', '17:21:30', '17:23:34', '17:30:02', '17:37:27', '17:47:30', '17:50:39', '17:51:15', '17:54:07', '19:00:33', '19:05:53', '19:31:30', '19:37:37', '19:56:10', '20:00:09', '20:04:53', '20:05:22', '20:09:56', '20:10:56', '20:16:46', '20:19:48', '20:21:18', '20:22:54', '20:24:00', '20:27:39', '20:28:56', '20:30:03', '20:32:36', '20:36:04', '20:39:57', '20:43:27', '20:44:56', '20:44:59', '20:53:03', '20:56:06', '20:56:35', '20:57:06', '20:58:09', '20:59:02', '21:00:33', '21:03:10', '21:11:47', '21:12:13', '21:15:28', '21:30:49', '21:32:41', '21:43:53', '21:45:52', '21:50:09', '21:52:42', '22:07:13', '22:08:12', '22:18:00', '22:30:45', '22:32:52', '22:34:58', '22:35:50', '22:37:15', '22:39:44', '22:41:05', '22:41:06', '22:46:26', '22:48:03', '22:48:31', '22:49:28', '22:51:23', '22:53:20', '22:54:12', '23:04:37', '23:07:03', '23:07:32', '23:09:09', '23:49:43', '23:51:19', '23:51:50', '23:55:45', '23:56:25'], 'to RUN': ['00:09:39', '00:11:06', '01:16:37', '01:30:13', '01:36:03', '01:43:45', '01:49:32', '03:08:57', '03:11:50', '03:20:55', '03:38:45', '03:51:40', '04:38:27', '04:40:07', '04:43:24', '04:50:29', '04:51:30', '04:53:41', '04:58:35', '05:04:23', '05:12:45', '05:23:25', '06:01:11', '06:10:38', '06:13:09', '06:37:31', '06:49:58', '06:56:24', '06:58:22', '06:59:27', '07:01:59', '07:07:28', '07:32:20', '07:41:09', '07:46:51', '08:01:55', '08:16:25', '08:35:57', '08:45:40', '09:00:22', '09:02:56', '09:07:28', '09:15:30', '09:19:03', '09:21:27', '09:41:14', '09:41:45', '09:42:24', '09:42:33', '09:45:34', '09:51:13', '09:53:08', '09:59:09', '10:01:07', '10:04:26', '10:09:01', '10:11:39', '10:13:21', '10:15:13', '10:17:27', '10:20:11', '10:22:15', '10:24:14', '10:25:13', '10:29:50', '10:32:34', '10:38:18', '10:51:45', '11:02:37', '11:05:05', '13:33:50', '13:54:48', '15:28:31', '15:45:49', '15:49:52', '16:06:16', '16:36:50', '16:37:28', '16:44:10', '16:45:36', '16:49:58', '16:50:51', '16:51:42', '17:19:46', '17:23:05', '17:23:46', '17:30:52', '17:37:42', '17:47:46', '17:51:10', '17:51:50', '17:54:16', '19:01:04', '19:06:06', '19:31:55', '19:37:48', '19:57:10', '20:00:33', '20:05:18', '20:06:32', '20:10:27', '20:11:56', '20:17:28', '20:19:52', '20:21:18', '20:23:03', '20:24:19', '20:28:08', '20:29:18', '20:32:24', '20:33:06', '20:36:30', '20:40:12', '20:44:29', '20:44:59', '20:50:10', '20:53:32', '20:56:08', '20:56:52', '20:57:42', '20:58:09', '20:59:32', '21:01:03', '21:10:47', '21:11:48', '21:12:16', '21:15:56', '21:30:53', '21:32:45', '21:43:58', '21:48:52', '21:51:16', '21:52:52', '22:07:51', '22:08:31', '22:26:14', '22:31:22', '22:32:52', '22:35:20', '22:36:19', '22:37:51', '22:39:59', '22:41:06', '22:42:21', '22:47:22', '22:48:29', '22:48:33', '22:49:55', '22:52:21', '22:53:50', '22:54:30', '23:05:20', '23:07:24', '23:07:54', '23:09:25', '23:50:49', '23:51:21', '23:55:18', '23:56:01', '23:56:55']}}</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>{'ss_count': 68, 'total': 72, 'detail': {'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68], 'from STOP': ['00:47:46', '00:51:41', '01:45:28', '03:14:06', '04:02:34', '04:06:42', '04:09:17', '04:38:12', '04:49:58', '05:10:26', '05:14:26', '05:20:12', '05:35:57', '05:54:27', '05:59:00', '06:23:14', '06:27:00', '06:31:17', '06:36:55', '06:37:53', '07:04:07', '07:06:11', '07:07:20', '07:25:16', '07:26:47', '07:42:16', '08:19:29', '08:40:14', '09:20:53', '09:29:30', '09:53:23', '10:02:50', '10:04:11', '10:51:31', '11:12:54', '11:42:34', '12:25:06', '12:54:44', '13:01:12', '13:08:14', '13:23:39', '14:18:25', '14:47:40', '14:51:52', '16:03:24', '16:30:52', '16:35:27', '16:49:16', '16:58:38', '19:54:10', '20:06:32', '20:37:36', '21:12:56', '21:25:07', '21:58:11', '22:17:00', '22:33:37', '23:12:17', '23:15:47', '23:23:22', '23:33:38', '23:36:51', '23:37:39', '23:38:15', '23:38:51', '23:40:03', '23:42:30', '23:44:12'], 'to RUN': ['00:47:46', '00:52:29', '01:46:04', '03:15:33', '04:03:45', '04:07:20', '04:09:20', '04:39:05', '04:50:13', '05:10:41', '05:14:47', '05:21:29', '05:35:57', '05:54:27', '06:01:51', '06:23:29', '06:27:19', '06:31:55', '06:37:31', '06:37:53', '07:04:43', '07:06:26', '07:07:21', '07:26:03', '07:27:07', '07:42:16', '08:20:44', '08:40:22', '09:21:23', '09:29:45', '09:54:14', '10:02:50', '10:05:04', '10:52:42', '11:13:46', '11:43:11', '12:25:27', '12:58:05', '13:03:13', '13:08:29', '13:24:40', '14:19:27', '14:48:09', '14:52:51', '16:04:02', '16:31:44', '16:35:53', '16:51:42', '16:59:02', '19:55:10', '20:07:25', '20:38:11', '21:13:50', '21:26:16', '22:00:57', '22:18:00', '22:34:09', '23:12:52', '23:16:17', '23:23:22', '23:33:52', '23:37:08', '23:37:53', '23:38:15', '23:39:34', '23:41:26', '23:44:12', '23:44:46']}}</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>123</v>
+      </c>
+      <c r="E63" t="n">
+        <v>234</v>
+      </c>
+      <c r="F63" t="n">
+        <v>99</v>
+      </c>
+      <c r="G63" t="n">
+        <v>168</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1242</v>
+      </c>
+      <c r="J63" t="n">
+        <v>59</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>84</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>133</v>
+      </c>
+      <c r="E64" t="n">
+        <v>123</v>
+      </c>
+      <c r="F64" t="n">
+        <v>101</v>
+      </c>
+      <c r="G64" t="n">
+        <v>118</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1352</v>
+      </c>
+      <c r="J64" t="n">
+        <v>36</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>159</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44716</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>{'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116], 'from STOP': ['00:45:51', '01:02:17', '03:06:59', '03:21:37', '03:23:34', '03:23:43', '03:28:08', '03:33:08', '03:52:27', '03:54:51', '04:01:00', '04:03:08', '04:03:16', '04:07:23', '04:09:33', '04:33:15', '04:37:50', '04:40:06', '04:42:12', '04:44:19', '04:46:24', '04:48:30', '04:50:31', '04:52:33', '04:56:41', '05:02:44', '05:14:37', '05:16:52', '05:19:02', '05:21:06', '05:21:24', '05:32:20', '06:14:51', '06:26:02', '06:40:26', '06:42:31', '06:54:52', '06:56:53', '06:58:57', '07:02:12', '07:26:07', '07:32:21', '07:34:44', '07:36:53', '08:22:02', '09:44:19', '09:49:37', '11:36:43', '12:28:45', '12:36:33', '12:38:53', '12:41:11', '13:07:48', '13:09:53', '13:12:36', '13:31:58', '13:41:03', '14:16:14', '14:19:03', '14:21:15', '14:23:22', '14:25:18', '14:27:15', '14:29:12', '14:31:24', '14:33:21', '14:40:56', '14:46:42', '14:59:44', '15:01:43', '15:05:25', '15:25:54', '15:29:44', '15:35:35', '15:41:25', '15:58:01', '16:01:55', '16:14:15', '16:18:10', '16:20:13', '16:49:10', '16:59:02', '17:19:12', '17:21:19', '17:23:27', '17:25:41', '17:29:45', '17:34:14', '17:36:12', '19:02:59', '19:05:50', '19:07:51', '19:10:24', '19:28:47', '19:28:55', '19:32:52', '19:34:50', '19:46:26', '19:50:35', '19:52:34', '20:02:47', '20:06:27', '20:10:25', '20:12:58', '20:23:18', '20:33:45', '20:35:54', '20:59:17', '20:59:39', '21:04:33', '22:14:47', '22:44:34', '22:48:37', '22:58:17', '23:51:10', '23:57:04'], 'to RUN': ['00:46:00', '01:02:20', '03:07:37', '03:21:37', '03:23:43', '03:25:44', '03:31:06', '03:33:08', '03:52:43', '03:55:11', '04:01:15', '04:03:16', '04:05:36', '04:07:41', '04:09:45', '04:33:34', '04:38:08', '04:40:13', '04:42:22', '04:44:27', '04:46:29', '04:50:25', '04:50:38', '04:52:50', '04:57:05', '05:02:47', '05:14:49', '05:17:13', '05:19:18', '05:21:06', '05:21:50', '05:32:27', '06:14:53', '06:26:11', '06:40:41', '06:42:40', '06:55:08', '06:57:01', '06:59:09', '07:02:21', '07:26:24', '07:32:40', '07:34:44', '07:36:57', '08:22:04', '09:44:19', '09:50:07', '11:36:43', '12:28:48', '12:36:49', '12:39:07', '12:41:32', '13:08:04', '13:09:53', '13:16:34', '13:32:20', '13:41:20', '14:16:44', '14:19:24', '14:21:35', '14:23:31', '14:25:33', '14:27:30', '14:29:27', '14:31:46', '14:33:42', '14:41:05', '14:46:57', '14:59:45', '15:01:45', '15:05:26', '15:25:58', '15:29:46', '15:39:28', '15:41:25', '15:58:01', '16:02:17', '16:14:15', '16:18:31', '16:20:27', '16:49:17', '16:59:03', '17:19:35', '17:21:34', '17:23:48', '17:26:07', '17:30:06', '17:34:17', '17:36:34', '19:03:30', '19:05:50', '19:08:11', '19:11:24', '19:28:55', '19:31:07', '19:33:07', '19:34:50', '19:46:30', '19:50:35', '19:52:42', '20:04:32', '20:06:50', '20:10:46', '20:13:05', '20:31:51', '20:33:48', '20:36:37', '20:59:24', '21:00:53', '21:04:48', '22:15:30', '22:44:38', '22:48:37', '22:58:24', '23:52:30', '23:57:25']}</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>{'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105], 'from STOP': ['00:20:17', '00:33:19', '01:00:36', '01:02:39', '01:02:55', '01:28:51', '02:56:57', '03:03:09', '03:15:58', '03:18:25', '03:22:33', '03:34:31', '03:39:44', '04:01:25', '04:12:01', '04:23:18', '04:27:40', '04:36:28', '04:49:19', '04:57:19', '05:01:47', '05:29:45', '05:40:33', '06:31:01', '06:33:19', '06:33:58', '06:36:25', '06:38:53', '06:41:09', '06:43:15', '06:45:41', '06:56:01', '07:08:46', '07:14:54', '07:41:45', '07:43:18', '07:45:24', '07:47:39', '07:49:59', '07:53:35', '07:55:54', '07:58:05', '08:00:11', '11:01:27', '11:20:48', '11:23:16', '11:29:35', '11:36:14', '12:45:41', '13:09:53', '14:13:29', '14:15:45', '14:23:59', '14:29:55', '14:38:32', '14:49:25', '15:02:14', '15:02:21', '15:09:50', '15:18:21', '15:20:33', '15:24:53', '15:27:03', '15:52:36', '17:05:01', '17:10:24', '17:18:51', '17:20:50', '18:09:49', '18:11:54', '18:16:18', '18:23:00', '18:25:09', '18:25:13', '18:30:29', '18:34:40', '19:17:38', '19:23:58', '19:30:32', '19:32:52', '19:35:06', '19:37:10', '19:39:29', '19:45:34', '19:56:03', '19:56:07', '20:08:24', '20:09:19', '20:15:42', '20:18:14', '20:29:40', '20:32:01', '20:34:08', '20:38:26', '20:40:32', '20:42:30', '20:51:02', '20:53:10', '20:57:26', '21:07:45', '21:12:01', '21:16:22', '21:24:39', '21:29:06', '21:41:31'], 'to RUN': ['00:20:36', '00:33:19', '01:00:38', '01:02:39', '01:03:14', '01:28:52', '02:58:42', '03:03:46', '03:16:20', '03:18:25', '03:22:49', '03:39:25', '03:40:39', '04:01:50', '04:12:32', '04:23:37', '04:28:16', '04:36:57', '04:49:25', '04:57:43', '05:02:11', '05:30:09', '05:40:37', '06:31:19', '06:33:19', '06:34:13', '06:36:52', '06:39:11', '06:41:15', '06:43:35', '06:45:59', '06:56:16', '07:09:55', '07:15:09', '07:42:09', '07:44:11', '07:45:40', '07:47:47', '07:50:17', '07:53:45', '07:56:02', '07:58:07', '08:00:19', '11:01:57', '11:20:54', '11:23:16', '11:29:50', '11:36:28', '12:46:04', '13:11:04', '14:13:49', '14:21:50', '14:25:18', '14:30:03', '14:38:32', '14:49:39', '15:02:21', '15:07:38', '15:10:12', '15:18:35', '15:22:57', '15:24:53', '15:27:11', '15:53:07', '17:05:55', '17:10:26', '17:18:51', '17:21:12', '18:09:49', '18:12:10', '18:16:18', '18:23:00', '18:25:13', '18:28:30', '18:30:33', '18:36:23', '19:21:55', '19:24:28', '19:30:53', '19:33:07', '19:35:06', '19:37:31', '19:39:29', '19:45:49', '19:56:07', '20:04:32', '20:08:48', '20:11:08', '20:16:01', '20:22:16', '20:30:02', '20:32:07', '20:34:19', '20:38:35', '20:42:09', '20:48:45', '20:51:02', '20:53:24', '20:57:27', '21:08:06', '21:16:22', '21:18:38', '21:25:02', '21:29:09', '21:43:13']}</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>{'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101], 'from STOP': ['00:02:36', '00:02:52', '00:04:42', '00:07:35', '00:10:13', '00:20:20', '00:22:41', '00:26:08', '00:35:10', '00:37:50', '00:42:34', '00:48:51', '00:57:25', '01:05:50', '01:06:44', '01:23:43', '01:24:54', '03:06:11', '03:22:14', '03:23:59', '04:08:51', '04:13:07', '04:15:38', '04:17:49', '04:23:43', '05:00:03', '05:01:23', '05:38:50', '05:39:43', '05:39:59', '05:40:52', '05:41:42', '05:42:18', '05:42:52', '05:43:27', '07:52:16', '07:55:44', '08:15:50', '08:18:15', '09:51:04', '09:59:09', '10:02:48', '12:11:40', '13:30:10', '14:08:18', '14:09:38', '14:37:13', '14:41:51', '14:44:46', '14:46:20', '14:47:40', '14:51:15', '14:55:37', '14:59:29', '15:01:22', '15:03:44', '15:04:42', '15:09:50', '15:10:30', '15:12:35', '15:17:37', '15:20:33', '15:22:06', '15:24:09', '15:33:37', '15:35:57', '15:40:57', '15:45:19', '15:49:50', '15:54:43', '15:58:24', '16:05:56', '16:21:08', '16:21:49', '16:33:57', '16:40:02', '16:43:34', '16:44:02', '16:52:26', '16:52:57', '16:55:45', '16:55:52', '17:02:59', '17:20:11', '19:01:54', '19:06:14', '19:24:37', '19:35:06', '20:18:35', '20:21:11', '20:36:44', '20:45:56', '20:54:23', '21:04:05', '21:37:16', '21:47:26', '22:11:49', '22:21:38', '22:31:45', '23:05:30', '23:40:45'], 'to RUN': ['00:02:52', '00:03:11', '00:04:57', '00:07:53', '00:17:53', '00:20:27', '00:22:57', '00:32:05', '00:35:15', '00:38:09', '00:46:28', '00:52:19', '01:02:39', '01:06:08', '01:06:45', '01:24:18', '01:27:00', '03:07:58', '03:23:59', '03:25:44', '04:10:19', '04:13:24', '04:15:39', '04:21:52', '04:24:17', '05:00:20', '05:01:42', '05:38:50', '05:39:43', '05:40:17', '05:41:42', '05:42:18', '05:42:36', '05:43:11', '05:48:41', '07:55:39', '08:00:43', '08:17:04', '08:19:41', '09:51:56', '10:02:31', '10:04:14', '12:11:40', '13:30:51', '14:09:25', '14:11:19', '14:39:31', '14:42:28', '14:45:01', '14:46:20', '14:48:18', '14:53:14', '14:58:16', '14:59:45', '15:01:45', '15:04:16', '15:07:38', '15:10:14', '15:10:48', '15:13:06', '15:18:05', '15:20:55', '15:22:21', '15:24:32', '15:33:55', '15:36:23', '15:41:47', '15:45:56', '15:50:32', '15:55:27', '15:59:00', '16:06:27', '16:21:33', '16:23:45', '16:34:31', '16:40:17', '16:43:55', '16:46:59', '16:52:50', '16:53:27', '16:55:45', '16:56:22', '17:03:51', '17:20:50', '19:03:01', '19:09:46', '19:32:44', '19:40:28', '20:19:35', '20:22:10', '20:43:37', '20:52:04', '21:01:52', '21:11:18', '21:45:15', '21:55:35', '22:19:58', '22:24:26', '22:40:56', '23:11:10', '23:44:03']}</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>{'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90], 'from STOP': ['00:02:52', '00:33:56', '00:35:10', '00:46:26', '00:57:16', '01:19:06', '01:34:31', '01:43:27', '03:01:55', '03:43:10', '03:49:44', '03:51:16', '03:53:28', '04:14:16', '04:30:05', '04:43:32', '05:07:27', '05:31:52', '05:43:27', '06:23:45', '06:32:10', '06:42:05', '06:45:08', '06:46:35', '06:48:04', '07:21:20', '07:27:41', '07:27:48', '07:28:24', '07:50:29', '07:52:16', '08:04:46', '08:10:08', '08:16:30', '09:51:56', '09:54:46', '11:27:51', '12:05:40', '12:13:08', '12:29:25', '12:34:22', '13:37:30', '13:42:55', '13:44:54', '13:56:06', '14:05:24', '14:07:57', '14:30:59', '14:48:40', '14:50:19', '14:50:53', '14:52:14', '14:52:52', '14:53:52', '14:55:12', '15:10:48', '15:44:19', '16:16:41', '16:22:04', '16:37:27', '16:43:55', '17:17:31', '17:17:38', '17:36:49', '17:45:00', '19:06:06', '19:32:52', '19:34:26', '19:45:23', '19:46:35', '19:48:16', '19:54:58', '19:57:07', '20:07:28', '20:09:47', '20:16:01', '20:17:38', '20:19:35', '20:26:52', '21:06:08', '21:43:53', '21:59:37', '22:18:35', '22:56:03', '22:56:57', '23:04:05', '23:15:36', '23:31:19', '23:54:51', '23:59:21'], 'to RUN': ['00:03:30', '00:34:25', '00:35:30', '00:46:28', '00:57:43', '01:19:14', '01:34:37', '01:43:54', '03:04:42', '03:43:26', '03:50:59', '03:51:32', '03:54:29', '04:15:01', '04:30:47', '04:44:02', '05:09:15', '05:31:53', '05:43:27', '06:24:27', '06:32:10', '06:42:05', '06:45:16', '06:47:28', '06:48:05', '07:21:55', '07:27:48', '07:28:07', '07:28:26', '07:51:26', '07:52:19', '08:05:32', '08:10:23', '08:16:30', '09:51:56', '09:54:49', '11:27:51', '12:05:40', '12:13:37', '12:29:25', '12:34:36', '13:38:13', '13:43:17', '13:45:13', '14:04:48', '14:06:28', '14:08:21', '14:30:59', '14:50:15', '14:50:38', '14:51:15', '14:52:14', '14:53:52', '14:54:51', '14:55:16', '15:11:11', '15:44:56', '16:17:32', '16:22:25', '16:43:34', '16:43:59', '17:17:38', '17:21:48', '17:36:49', '17:45:00', '19:06:50', '19:32:52', '19:34:26', '19:45:49', '19:47:05', '19:48:45', '19:55:06', '20:00:26', '20:07:56', '20:10:25', '20:16:37', '20:18:35', '20:20:12', '20:29:37', '21:06:23', '21:44:23', '22:03:11', '22:19:07', '22:56:46', '22:57:04', '23:04:05', '23:16:03', '23:31:19', '23:55:27', '23:59:39']}</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>{'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97], 'from STOP': ['00:13:44', '00:25:52', '00:55:17', '01:01:37', '01:08:33', '01:23:40', '01:30:44', '01:35:45', '01:37:10', '01:37:50', '01:56:51', '01:57:29', '01:58:40', '03:13:04', '03:15:37', '03:28:43', '03:42:44', '04:00:05', '04:06:11', '04:24:12', '04:26:47', '04:30:39', '04:33:50', '05:23:08', '05:23:59', '05:25:48', '05:39:59', '05:47:30', '05:51:13', '06:22:01', '06:39:11', '06:42:42', '06:47:44', '07:06:28', '07:35:06', '07:40:26', '07:45:24', '07:46:49', '07:47:39', '07:50:17', '08:05:22', '09:51:04', '11:01:05', '11:23:16', '11:32:13', '11:33:40', '11:36:28', '11:46:09', '12:15:42', '12:50:53', '13:55:52', '14:11:37', '14:13:49', '14:24:02', '14:38:11', '14:41:26', '14:57:22', '15:04:38', '15:07:53', '15:13:06', '15:17:06', '15:21:59', '15:27:34', '15:33:37', '15:41:55', '15:46:17', '15:49:13', '15:53:07', '15:55:27', '16:15:35', '16:17:55', '16:22:27', '16:27:25', '16:37:43', '16:44:55', '16:49:53', '17:05:32', '17:06:52', '17:17:15', '17:20:50', '17:34:21', '17:40:42', '17:42:41', '17:46:37', '17:49:25', '17:52:30', '18:04:18', '18:57:58', '19:32:28', '19:40:06', '19:40:28', '20:10:46', '20:12:22', '20:13:41', '20:26:13', '20:49:21', '21:33:10'], 'to RUN': ['00:13:44', '00:26:18', '00:59:26', '01:03:05', '01:09:08', '01:24:02', '01:35:29', '01:35:45', '01:37:28', '01:38:42', '01:57:11', '01:58:03', '01:59:25', '03:13:37', '03:16:05', '03:29:38', '03:42:44', '04:01:15', '04:06:11', '04:24:12', '04:27:51', '04:31:14', '04:34:14', '05:23:16', '05:24:33', '05:26:25', '05:39:59', '05:48:05', '05:51:21', '06:22:36', '06:39:11', '06:42:50', '06:47:47', '07:07:03', '07:35:43', '07:40:45', '07:45:24', '07:47:23', '07:49:23', '07:58:42', '08:06:10', '09:53:28', '11:01:57', '11:23:16', '11:33:11', '11:34:30', '11:36:43', '11:46:09', '12:16:01', '12:51:38', '13:57:19', '14:12:14', '14:14:32', '14:28:29', '14:38:55', '14:41:36', '14:57:55', '15:06:18', '15:08:14', '15:14:08', '15:17:59', '15:21:59', '15:28:45', '15:37:38', '15:45:19', '15:47:16', '15:51:46', '15:53:43', '15:57:20', '16:17:10', '16:19:30', '16:23:01', '16:28:18', '16:40:02', '16:45:14', '16:49:53', '17:05:32', '17:06:52', '17:17:53', '17:21:12', '17:34:37', '17:41:41', '17:43:36', '17:48:22', '17:50:10', '17:53:59', '18:04:54', '18:57:58', '19:33:07', '19:40:07', '19:40:50', '20:11:03', '20:12:46', '20:14:19', '20:26:13', '20:49:21', '21:33:51']}</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>46</v>
+      </c>
+      <c r="E66" t="n">
+        <v>75</v>
+      </c>
+      <c r="F66" t="n">
+        <v>69</v>
+      </c>
+      <c r="G66" t="n">
+        <v>49</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1363</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>68</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>50</v>
+      </c>
+      <c r="E67" t="n">
+        <v>183</v>
+      </c>
+      <c r="F67" t="n">
+        <v>209</v>
+      </c>
+      <c r="G67" t="n">
+        <v>74</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1497</v>
+      </c>
+      <c r="J67" t="n">
+        <v>45</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>81</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>33</v>
+      </c>
+      <c r="E68" t="n">
+        <v>86</v>
+      </c>
+      <c r="F68" t="n">
+        <v>109</v>
+      </c>
+      <c r="G68" t="n">
+        <v>64</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1647</v>
+      </c>
+      <c r="J68" t="n">
+        <v>60</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>73</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>77</v>
+      </c>
+      <c r="E69" t="n">
+        <v>191</v>
+      </c>
+      <c r="F69" t="n">
+        <v>250</v>
+      </c>
+      <c r="G69" t="n">
+        <v>77</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1639</v>
+      </c>
+      <c r="J69" t="n">
+        <v>64</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>95</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>{'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99], 'from STOP': ['00:48:57', '00:54:03', '01:00:03', '01:02:06', '01:06:14', '01:06:24', '01:18:13', '01:20:22', '01:22:48', '03:03:11', '03:04:14', '03:06:50', '03:07:02', '03:59:30', '04:51:21', '05:10:38', '06:27:42', '06:39:38', '06:47:26', '07:34:53', '07:49:05', '07:57:10', '07:59:30', '08:03:49', '08:09:32', '08:10:20', '09:10:11', '09:14:13', '09:21:58', '09:29:49', '09:30:07', '11:24:19', '11:41:17', '11:48:23', '11:55:09', '12:42:52', '12:44:45', '13:10:33', '13:14:37', '13:17:02', '13:29:27', '14:16:24', '14:18:26', '14:20:50', '14:21:00', '14:24:55', '14:39:33', '14:44:00', '14:57:35', '15:03:31', '15:09:30', '19:00:52', '19:18:05', '19:21:11', '19:22:04', '19:24:13', '19:24:53', '19:25:10', '19:26:24', '19:31:58', '19:34:55', '19:48:54', '19:52:48', '19:54:40', '20:02:07', '20:03:19', '20:08:44', '20:41:08', '20:47:44', '20:52:38', '20:55:05', '20:55:58', '21:43:59', '22:09:04', '22:17:45', '22:22:57', '22:29:14', '22:30:13', '22:38:17', '22:39:19', '22:44:28', '22:44:54', '22:48:02', '22:51:04', '22:52:18', '22:52:39', '22:53:17', '23:05:52', '23:06:29', '23:07:27', '23:12:37', '23:23:39', '23:26:58', '23:32:14', '23:38:48', '23:43:41', '23:51:34', '23:53:48', '23:57:49'], 'to RUN': ['00:49:23', '00:54:11', '01:00:19', '01:02:19', '01:06:24', '01:14:19', '01:18:17', '01:20:24', '01:23:22', '03:03:45', '03:05:27', '03:07:02', '03:09:13', '03:59:47', '04:51:55', '05:10:42', '06:27:43', '06:39:38', '06:47:33', '07:34:55', '07:49:10', '07:57:30', '08:01:49', '08:03:56', '08:10:03', '08:10:57', '09:10:11', '09:14:26', '09:22:20', '09:29:50', '09:30:11', '11:24:31', '11:43:49', '11:49:23', '11:55:36', '12:42:52', '12:44:56', '13:10:43', '13:15:14', '13:17:18', '13:29:36', '14:16:27', '14:18:43', '14:21:00', '14:24:55', '14:27:13', '14:42:00', '14:44:00', '14:57:42', '15:03:43', '15:09:47', '19:03:55', '19:19:03', '19:21:46', '19:23:20', '19:24:25', '19:25:10', '19:25:27', '19:29:10', '19:34:44', '19:39:08', '19:49:44', '19:54:03', '19:56:36', '20:02:43', '20:03:22', '20:09:20', '20:43:27', '20:49:33', '20:53:13', '20:55:32', '20:56:35', '21:43:59', '22:09:58', '22:17:45', '22:24:32', '22:29:16', '22:32:39', '22:38:40', '22:39:41', '22:44:38', '22:45:33', '22:48:22', '22:51:25', '22:52:29', '22:52:56', '22:53:37', '23:05:52', '23:07:27', '23:08:52', '23:19:22', '23:24:48', '23:27:19', '23:34:13', '23:42:28', '23:45:32', '23:51:50', '23:56:35', '23:59:42']}</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>{'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146], 'from STOP': ['00:05:47', '00:08:07', '00:11:31', '00:26:58', '00:33:14', '00:46:28', '00:59:14', '01:02:41', '01:43:11', '01:44:56', '01:48:50', '01:51:38', '01:52:11', '03:03:11', '03:03:31', '03:07:07', '03:07:52', '03:10:45', '03:14:23', '03:18:13', '03:23:27', '03:27:20', '03:27:49', '03:30:50', '03:34:07', '03:39:09', '03:49:55', '04:22:52', '04:25:34', '04:25:37', '04:36:26', '04:47:50', '04:53:15', '04:53:20', '04:59:55', '05:13:13', '05:13:53', '05:14:16', '05:16:58', '05:20:13', '05:23:02', '05:24:21', '05:25:29', '05:26:57', '05:28:47', '05:30:45', '05:33:26', '05:34:31', '05:39:48', '05:42:29', '05:45:20', '10:33:41', '10:43:43', '14:10:18', '14:11:48', '14:12:57', '14:14:50', '14:19:17', '14:22:28', '14:22:31', '14:26:06', '14:28:25', '14:32:26', '14:34:56', '14:38:49', '14:41:17', '14:48:38', '14:50:39', '14:56:02', '14:58:45', '15:02:18', '15:07:16', '15:09:57', '15:10:05', '15:13:07', '15:13:26', '15:16:01', '15:18:43', '15:21:31', '15:21:41', '15:27:24', '15:30:05', '15:33:02', '15:35:26', '15:38:10', '15:46:05', '15:46:06', '15:49:25', '15:56:16', '16:14:11', '16:14:17', '16:19:39', '16:22:23', '16:25:01', '16:27:47', '16:27:53', '16:30:44', '16:33:34', '16:36:31', '16:39:21', '16:39:29', '16:48:20', '16:51:02', '16:51:10', '16:58:56', '17:01:37', '17:04:15', '17:14:44', '20:11:44', '20:14:36', '20:15:04', '20:18:55', '20:21:36', '20:26:51', '20:29:36', '20:35:04', '20:39:19', '20:41:29', '20:47:00', '20:47:07', '20:54:57', '21:00:05', '21:05:06', '21:07:52', '21:10:54', '21:18:21', '21:21:05', '21:23:46', '21:23:54', '21:37:11', '22:18:58', '22:20:09', '22:22:57', '22:34:57', '22:35:55', '22:40:55', '22:48:42', '23:01:33', '23:01:54', '23:09:53', '23:23:39', '23:41:17', '23:44:02', '23:46:43', '23:46:51', '23:49:40'], 'to RUN': ['00:07:57', '00:09:05', '00:11:35', '00:26:58', '00:33:25', '00:46:32', '00:59:37', '01:03:56', '01:43:44', '01:46:04', '01:49:16', '01:52:09', '01:53:17', '03:03:11', '03:04:42', '03:07:21', '03:08:08', '03:12:22', '03:15:43', '03:18:15', '03:23:30', '03:27:20', '03:28:29', '03:30:51', '03:35:43', '03:39:16', '03:50:31', '04:22:57', '04:25:37', '04:30:53', '04:36:39', '04:48:12', '04:53:20', '04:57:19', '04:59:58', '05:13:28', '05:14:06', '05:14:27', '05:17:03', '05:20:17', '05:23:10', '05:25:15', '05:25:29', '05:27:13', '05:28:48', '05:30:49', '05:34:25', '05:37:12', '05:39:52', '05:42:44', '05:45:41', '10:42:38', '10:44:07', '14:10:23', '14:12:07', '14:14:05', '14:18:43', '14:20:10', '14:22:31', '14:25:30', '14:26:39', '14:28:41', '14:32:27', '14:35:22', '14:38:49', '14:41:41', '14:48:38', '14:50:56', '14:56:02', '14:58:46', '15:02:29', '15:07:27', '15:10:05', '15:11:01', '15:13:24', '15:13:42', '15:16:21', '15:19:00', '15:21:41', '15:25:02', '15:27:42', '15:30:23', '15:33:02', '15:35:42', '15:38:26', '15:46:06', '15:47:01', '15:53:49', '15:56:49', '16:14:17', '16:17:01', '16:19:39', '16:22:23', '16:25:03', '16:27:53', '16:30:39', '16:30:54', '16:33:53', '16:36:42', '16:39:29', '16:45:43', '16:48:20', '16:51:10', '16:53:57', '16:58:58', '17:01:47', '17:04:31', '17:15:00', '20:11:52', '20:14:36', '20:16:26', '20:19:11', '20:21:53', '20:26:52', '20:29:53', '20:35:04', '20:39:35', '20:41:49', '20:47:07', '20:49:50', '20:55:05', '21:00:10', '21:05:11', '21:07:53', '21:10:54', '21:18:28', '21:21:10', '21:23:54', '21:26:40', '21:37:11', '22:18:58', '22:20:49', '22:27:05', '22:35:12', '22:36:13', '22:41:13', '22:48:58', '23:01:44', '23:04:40', '23:10:01', '23:25:49', '23:41:26', '23:44:02', '23:46:51', '23:49:40', '23:57:33']}</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>{'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164], 'from STOP': ['00:09:27', '00:58:59', '01:49:18', '03:02:04', '03:17:33', '03:35:43', '03:42:34', '03:54:58', '04:01:30', '04:24:48', '04:29:59', '04:38:45', '04:45:41', '04:49:34', '05:02:34', '05:11:00', '05:33:26', '06:03:22', '06:05:36', '06:16:28', '06:33:20', '06:45:35', '06:54:45', '06:56:34', '07:05:24', '07:12:15', '07:19:00', '07:39:20', '08:06:57', '08:09:32', '08:14:28', '08:16:37', '08:20:26', '08:38:38', '08:52:29', '08:59:01', '09:05:04', '09:06:26', '09:22:20', '09:34:46', '09:35:09', '09:41:12', '09:41:31', '09:41:37', '09:47:30', '09:54:25', '09:58:47', '09:59:34', '10:08:46', '10:10:51', '10:14:40', '10:20:37', '10:28:03', '10:30:18', '10:30:58', '10:37:09', '10:47:52', '12:07:32', '12:07:54', '12:08:21', '12:10:10', '12:10:53', '12:11:29', '12:18:42', '12:31:32', '12:51:54', '12:54:04', '13:00:34', '13:07:16', '13:09:37', '13:41:04', '13:48:51', '14:19:51', '14:20:26', '14:23:24', '14:28:58', '14:35:55', '14:37:05', '14:40:16', '14:45:28', '14:49:30', '14:55:02', '15:01:08', '15:05:07', '15:06:35', '15:09:12', '15:15:28', '15:17:31', '15:29:43', '15:30:39', '15:32:09', '15:32:26', '15:33:21', '15:34:12', '15:37:15', '15:49:25', '15:52:05', '16:01:36', '16:06:00', '16:19:56', '16:31:58', '16:37:10', '16:42:56', '16:48:20', '16:49:00', '16:53:07', '16:54:37', '17:01:26', '17:04:15', '17:07:37', '17:10:30', '17:13:13', '17:21:13', '17:24:06', '17:32:44', '17:49:54', '18:00:22', '18:03:30', '18:04:41', '18:22:04', '18:34:29', '19:10:10', '19:19:03', '19:19:19', '19:20:16', '19:28:22', '19:31:21', '19:32:14', '19:41:41', '19:46:34', '19:51:16', '19:51:35', '19:52:10', '19:54:15', '20:04:46', '20:06:20', '20:08:44', '20:23:42', '20:26:11', '20:32:37', '20:35:03', '20:37:24', '20:40:14', '20:53:57', '20:56:34', '20:59:27', '21:01:10', '21:01:57', '21:04:47', '21:06:56', '21:12:09', '21:14:37', '21:17:04', '22:15:34', '22:16:39', '22:17:13', '22:21:26', '22:35:20', '22:41:50', '23:28:49', '23:33:12', '23:33:16', '23:42:04', '23:49:24'], 'to RUN': ['00:09:43', '00:59:14', '01:49:19', '03:02:08', '03:17:34', '03:39:44', '03:44:39', '03:59:30', '04:01:33', '04:29:27', '04:29:59', '04:39:13', '04:45:52', '04:55:38', '05:07:23', '05:16:52', '05:35:17', '06:03:27', '06:06:04', '06:19:42', '06:37:35', '06:52:54', '06:54:54', '07:05:06', '07:05:47', '07:15:19', '07:28:20', '07:39:37', '08:07:43', '08:12:36', '08:14:28', '08:16:46', '08:23:03', '08:38:47', '08:52:45', '09:01:25', '09:05:15', '09:07:08', '09:22:23', '09:35:09', '09:36:58', '09:41:17', '09:41:37', '09:45:06', '09:52:22', '09:57:12', '09:58:49', '10:05:34', '10:08:56', '10:12:17', '10:15:02', '10:20:50', '10:28:47', '10:30:18', '10:31:25', '10:37:27', '10:47:55', '12:07:35', '12:07:55', '12:08:21', '12:10:42', '12:11:29', '12:11:39', '12:18:50', '12:31:50', '12:52:00', '13:00:34', '13:01:26', '13:07:42', '13:10:08', '13:41:14', '13:49:35', '14:20:10', '14:20:26', '14:27:22', '14:31:51', '14:36:13', '14:37:58', '14:40:33', '14:46:03', '14:49:47', '14:59:03', '15:04:08', '15:05:16', '15:06:52', '15:09:30', '15:15:45', '15:18:07', '15:30:04', '15:31:39', '15:32:10', '15:32:42', '15:33:38', '15:35:23', '15:40:51', '15:49:25', '15:58:54', '16:03:30', '16:10:51', '16:19:56', '16:32:20', '16:37:57', '16:42:56', '16:48:40', '16:49:34', '16:53:19', '16:54:56', '17:01:30', '17:04:52', '17:07:49', '17:10:41', '17:13:29', '17:21:22', '17:24:28', '17:32:44', '17:49:54', '18:02:39', '18:04:03', '18:04:41', '18:22:04', '18:34:29', '19:14:13', '19:19:19', '19:19:19', '19:26:24', '19:30:44', '19:32:14', '19:35:22', '19:42:13', '19:49:40', '19:51:33', '19:51:54', '19:52:10', '19:54:24', '20:05:07', '20:07:32', '20:14:36', '20:24:00', '20:30:28', '20:32:54', '20:35:20', '20:38:05', '20:40:32', '20:54:11', '20:56:35', '20:59:27', '21:01:26', '21:02:30', '21:04:47', '21:09:45', '21:12:29', '21:14:41', '21:17:20', '22:15:45', '22:16:48', '22:18:58', '22:22:23', '22:35:37', '22:43:05', '23:32:56', '23:33:16', '23:37:08', '23:42:28', '23:57:16']}</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>{'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115], 'from STOP': ['00:02:10', '00:02:43', '00:18:59', '01:08:54', '01:27:17', '01:49:04', '01:51:12', '01:56:31', '03:10:45', '03:11:32', '03:12:45', '03:14:59', '03:27:49', '03:59:30', '04:26:12', '04:26:34', '04:35:57', '04:57:47', '04:58:19', '05:07:38', '05:11:48', '06:34:59', '06:35:44', '07:02:29', '07:03:00', '07:13:42', '07:23:15', '07:26:32', '07:39:37', '07:42:14', '07:47:53', '07:55:24', '08:00:00', '08:18:14', '08:18:42', '08:24:02', '08:35:41', '09:05:04', '09:06:11', '09:06:26', '09:13:35', '09:57:59', '11:03:04', '11:04:41', '11:18:05', '11:20:23', '11:25:30', '11:26:34', '11:29:07', '11:38:32', '11:40:07', '11:41:36', '11:42:52', '12:39:52', '12:45:04', '12:45:14', '12:46:26', '12:48:16', '12:51:37', '12:53:10', '12:53:42', '12:55:01', '12:59:41', '13:01:08', '13:07:07', '13:11:51', '13:31:00', '13:31:09', '13:49:10', '13:53:18', '14:13:50', '14:42:51', '15:28:36', '15:34:48', '17:24:28', '17:24:59', '17:26:53', '17:28:29', '17:39:27', '17:40:26', '17:41:08', '17:42:03', '17:43:34', '19:01:54', '19:08:24', '19:13:04', '19:20:07', '19:21:09', '19:35:59', '19:37:26', '19:37:36', '19:52:31', '20:02:43', '20:23:42', '21:44:56', '21:46:47', '21:48:01', '21:49:15', '21:49:59', '22:24:43', '22:34:40', '22:58:28', '23:00:40', '23:01:33', '23:02:26', '23:06:13', '23:11:37', '23:18:51', '23:19:59', '23:23:56', '23:35:49', '23:43:05', '23:45:32', '23:55:05', '23:57:49'], 'to RUN': ['00:02:35', '00:03:16', '00:19:47', '01:10:01', '01:27:20', '01:49:37', '01:51:35', '01:57:20', '03:11:09', '03:12:10', '03:12:57', '03:15:35', '03:27:57', '04:02:29', '04:26:12', '04:26:46', '04:36:01', '04:58:06', '04:58:26', '05:08:08', '05:12:17', '06:35:13', '06:36:05', '07:02:31', '07:03:46', '07:14:29', '07:23:53', '07:28:28', '07:40:42', '07:43:03', '07:47:53', '07:56:13', '08:00:15', '08:18:15', '08:18:42', '08:24:02', '08:36:40', '09:05:50', '09:06:26', '09:06:36', '09:13:53', '09:58:03', '11:04:16', '11:05:29', '11:18:45', '11:21:11', '11:26:15', '11:27:11', '11:30:06', '11:39:50', '11:41:04', '11:42:35', '11:42:53', '12:40:33', '12:45:14', '12:46:26', '12:47:58', '12:51:19', '12:51:54', '12:53:26', '12:54:40', '12:59:41', '13:00:52', '13:06:35', '13:07:26', '13:12:41', '13:31:00', '13:31:34', '13:49:26', '13:53:35', '14:14:05', '14:42:51', '15:33:48', '15:34:48', '17:24:28', '17:25:42', '17:27:54', '17:28:29', '17:39:27', '17:40:46', '17:41:08', '17:42:37', '17:45:40', '19:07:46', '19:11:00', '19:14:22', '19:20:16', '19:21:09', '19:36:04', '19:37:36', '19:43:58', '19:53:38', '20:12:08', '20:27:08', '21:45:49', '21:46:47', '21:48:55', '21:49:15', '21:50:08', '22:26:08', '22:34:57', '22:58:49', '23:01:07', '23:01:33', '23:03:28', '23:06:29', '23:12:16', '23:19:01', '23:22:42', '23:23:57', '23:36:06', '23:43:15', '23:45:58', '23:55:21', '23:58:10']}</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>{'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93], 'from STOP': ['00:10:09', '00:27:05', '00:32:41', '00:42:55', '00:56:40', '03:08:08', '03:09:46', '03:14:23', '03:16:41', '03:18:23', '03:24:48', '03:27:49', '03:31:25', '03:38:12', '03:51:19', '04:45:41', '05:27:41', '05:35:56', '05:48:04', '14:10:39', '14:12:57', '14:14:40', '14:19:01', '14:21:22', '14:24:04', '14:24:55', '14:26:00', '14:28:23', '14:31:25', '14:34:12', '14:36:29', '14:37:14', '14:38:33', '14:40:16', '14:46:38', '14:57:53', '15:05:07', '15:06:52', '15:30:39', '15:34:12', '15:34:48', '15:58:35', '15:59:52', '16:08:05', '16:12:39', '16:19:39', '16:20:59', '16:25:01', '16:28:09', '16:34:50', '16:40:18', '16:43:16', '16:50:33', '16:59:17', '17:00:49', '17:15:53', '17:32:18', '17:34:54', '17:36:35', '17:42:04', '17:47:13', '19:05:17', '19:08:42', '19:57:20', '20:10:19', '20:11:15', '20:12:21', '20:12:45', '20:20:15', '20:23:06', '20:26:31', '20:28:59', '20:47:23', '20:50:10', '20:52:38', '21:02:30', '21:10:22', '21:13:44', '21:35:58', '21:42:45', '22:15:17', '22:17:45', '22:27:59', '22:29:52', '22:37:10', '22:43:41', '22:49:15', '23:02:46', '23:16:34', '23:20:52', '23:24:15', '23:29:10', '23:45:58'], 'to RUN': ['00:10:11', '00:27:05', '00:32:54', '00:42:56', '00:58:11', '03:08:13', '03:10:45', '03:14:23', '03:16:41', '03:18:26', '03:25:52', '03:28:35', '03:31:56', '03:38:25', '03:52:46', '04:49:05', '05:28:10', '05:36:19', '05:48:46', '14:11:57', '14:13:31', '14:18:08', '14:19:51', '14:23:24', '14:24:30', '14:25:03', '14:27:49', '14:30:08', '14:32:42', '14:35:57', '14:36:29', '14:37:38', '14:38:59', '14:41:25', '14:46:38', '14:58:20', '15:05:07', '15:06:54', '15:30:39', '15:34:12', '15:35:58', '15:59:36', '16:01:02', '16:08:57', '16:13:44', '16:19:39', '16:21:11', '16:25:38', '16:28:48', '16:37:19', '16:41:05', '16:43:50', '16:51:38', '17:00:11', '17:00:52', '17:16:40', '17:33:04', '17:35:10', '17:36:43', '17:42:37', '17:47:29', '19:05:39', '19:13:43', '19:59:20', '20:10:59', '20:11:52', '20:12:45', '20:12:53', '20:20:24', '20:23:09', '20:26:48', '20:29:16', '20:47:23', '20:50:47', '20:52:55', '21:04:06', '21:10:38', '21:14:01', '21:36:18', '21:44:56', '22:15:17', '22:18:02', '22:28:31', '22:30:05', '22:37:10', '22:43:41', '22:49:52', '23:03:50', '23:16:34', '23:21:12', '23:25:08', '23:35:34', '23:46:51']}</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>125</v>
+      </c>
+      <c r="E71" t="n">
+        <v>164</v>
+      </c>
+      <c r="F71" t="n">
+        <v>182</v>
+      </c>
+      <c r="G71" t="n">
+        <v>128</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1749</v>
+      </c>
+      <c r="J71" t="n">
+        <v>16</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>105</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44723</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>97</v>
+      </c>
+      <c r="E72" t="n">
+        <v>151</v>
+      </c>
+      <c r="F72" t="n">
+        <v>129</v>
+      </c>
+      <c r="G72" t="n">
+        <v>169</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1417</v>
+      </c>
+      <c r="J72" t="n">
+        <v>15</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>125</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44724</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>{'detail': {'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25], 'from STOP': ['00:02:59', '00:13:47', '00:22:37', '00:22:48', '00:23:58', '00:39:59', '00:44:38', '00:50:33', '00:51:30', '01:25:20', '03:03:34', '03:05:58', '04:12:44', '04:15:19', '04:15:56', '04:38:52', '04:40:07', '04:41:42', '04:43:43', '04:44:41', '04:48:12', '04:51:28', '04:54:02', '04:58:13', '05:03:43'], 'to RUN': ['00:03:25', '00:13:54', '00:22:43', '00:23:04', '00:24:35', '00:40:21', '00:44:55', '00:50:37', '00:52:06', '01:25:39', '03:03:34', '03:06:18', '04:13:23', '04:15:55', '04:16:09', '04:39:40', '04:40:24', '04:42:51', '04:43:59', '04:46:31', '04:48:21', '04:52:07', '04:54:02', '04:58:29', '05:03:43']}, 'total': 26}</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>{'detail': {'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178], 'from STOP': ['00:15:07', '00:26:19', '00:32:28', '00:34:54', '00:40:35', '00:43:12', '00:43:16', '00:48:19', '00:51:09', '00:52:59', '00:55:29', '00:58:32', '01:01:35', '01:04:00', '01:07:32', '01:21:33', '01:25:21', '01:30:11', '01:34:16', '01:35:13', '01:35:33', '01:36:27', '01:37:23', '01:37:52', '01:40:10', '01:41:35', '01:45:10', '01:48:52', '02:55:54', '03:00:50', '03:03:26', '03:06:18', '03:09:01', '03:11:51', '03:14:19', '03:19:55', '03:24:42', '03:27:10', '03:29:49', '03:37:20', '03:42:26', '03:44:46', '03:47:28', '03:53:40', '04:00:52', '04:10:25', '04:10:32', '04:13:23', '04:18:17', '04:23:15', '04:30:47', '04:34:11', '04:39:01', '04:51:28', '04:53:46', '04:56:21', '04:59:08', '05:01:34', '05:04:35', '05:07:04', '05:14:55', '05:31:58', '05:32:06', '05:36:54', '06:50:11', '06:53:33', '06:58:03', '07:03:11', '07:44:23', '08:37:28', '08:40:02', '08:42:34', '08:45:21', '08:47:46', '08:50:18', '09:05:58', '09:08:42', '09:26:19', '09:28:59', '09:32:02', '09:34:42', '09:37:25', '11:03:07', '11:05:56', '11:11:10', '11:21:00', '11:31:19', '11:34:03', '11:40:14', '11:42:36', '11:52:11', '11:59:07', '12:02:04', '12:06:02', '12:06:44', '12:12:11', '12:14:49', '12:17:43', '12:20:49', '12:23:02', '12:25:53', '12:28:28', '12:29:06', '12:34:23', '12:35:02', '14:05:06', '14:11:28', '14:26:22', '14:43:14', '15:03:40', '15:06:08', '15:08:44', '15:19:57', '15:28:29', '15:32:02', '15:34:28', '15:35:34', '15:43:02', '15:53:55', '15:56:41', '15:57:34', '15:58:33', '16:07:10', '16:09:40', '16:12:17', '16:15:00', '16:24:21', '16:26:54', '16:33:12', '16:35:58', '16:38:32', '16:41:23', '16:43:58', '16:46:29', '16:49:14', '16:52:44', '16:55:31', '16:57:58', '17:00:26', '17:03:01', '17:03:09', '17:05:38', '17:10:37', '17:22:04', '17:24:33', '17:26:59', '17:33:52', '17:36:26', '17:38:53', '17:41:17', '17:43:53', '18:59:10', '19:02:09', '19:05:04', '19:11:23', '19:14:06', '19:28:33', '19:31:07', '19:33:37', '19:49:41', '20:00:20', '20:05:39', '20:08:30', '20:14:09', '20:25:32', '20:28:24', '20:30:57', '20:33:42', '20:33:44', '20:33:59', '20:37:02', '20:42:56', '20:45:32', '20:54:23', '21:01:39', '21:18:10', '21:20:38', '21:25:47'], 'to RUN': ['00:17:49', '00:26:48', '00:32:28', '00:35:34', '00:40:40', '00:43:16', '00:45:59', '00:50:54', '00:51:11', '00:53:41', '00:55:32', '00:59:09', '01:01:35', '01:04:25', '01:07:35', '01:21:49', '01:25:39', '01:33:03', '01:34:32', '01:35:30', '01:35:50', '01:36:43', '01:37:23', '01:39:56', '01:41:03', '01:42:50', '01:46:23', '01:48:54', '02:56:15', '03:01:07', '03:03:38', '03:06:18', '03:09:21', '03:11:52', '03:17:01', '03:21:42', '03:24:50', '03:27:18', '03:30:09', '03:37:37', '03:42:27', '03:45:03', '03:51:30', '03:53:44', '04:03:09', '04:10:32', '04:10:49', '04:15:55', '04:18:23', '04:23:36', '04:30:47', '04:34:27', '04:39:10', '04:51:28', '04:54:02', '04:56:38', '04:59:09', '05:01:43', '05:04:35', '05:07:04', '05:14:55', '05:32:06', '05:34:29', '05:37:10', '06:50:27', '06:55:37', '07:00:48', '07:03:27', '07:44:31', '08:37:36', '08:40:21', '08:42:59', '08:45:59', '08:47:50', '08:58:10', '09:06:13', '09:09:17', '09:26:25', '09:29:40', '09:32:10', '09:35:00', '09:37:45', '11:03:22', '11:06:12', '11:13:01', '11:23:49', '11:31:36', '11:36:52', '11:40:14', '11:43:17', '11:52:27', '11:59:13', '12:02:35', '12:06:35', '12:06:56', '12:12:13', '12:15:15', '12:18:05', '12:20:49', '12:23:18', '12:26:09', '12:28:50', '12:32:18', '12:34:45', '12:35:22', '14:11:12', '14:17:03', '14:26:59', '14:44:23', '15:03:41', '15:06:24', '15:11:59', '15:23:41', '15:29:31', '15:32:23', '15:35:29', '15:35:45', '15:51:07', '15:54:41', '15:56:57', '15:57:55', '16:02:14', '16:07:25', '16:09:56', '16:12:35', '16:15:08', '16:24:24', '16:27:12', '16:33:30', '16:36:03', '16:38:46', '16:41:38', '16:44:02', '16:46:45', '16:49:14', '16:53:01', '16:55:31', '16:58:14', '17:00:42', '17:03:09', '17:05:38', '17:08:05', '17:19:32', '17:22:04', '17:24:33', '17:31:25', '17:34:08', '17:36:38', '17:38:53', '17:41:20', '17:43:53', '18:59:37', '19:02:24', '19:05:13', '19:11:39', '19:19:08', '19:28:57', '19:31:11', '19:33:41', '19:49:45', '20:00:51', '20:05:55', '20:09:28', '20:23:06', '20:25:48', '20:28:53', '20:31:06', '20:33:44', '20:33:59', '20:37:02', '20:40:24', '20:42:57', '20:52:03', '20:54:28', '21:01:43', '21:18:19', '21:20:53', '21:33:18']}, 'total': 186}</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>{'detail': {'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81], 'from STOP': ['00:05:16', '00:59:09', '01:02:35', '01:24:44', '01:38:05', '04:14:25', '04:16:31', '05:09:55', '05:23:30', '06:07:08', '06:07:35', '06:13:33', '06:16:04', '06:17:14', '06:35:42', '06:39:29', '06:40:41', '07:16:00', '07:27:16', '07:27:52', '07:38:39', '07:45:36', '08:03:28', '08:04:02', '08:20:29', '08:26:41', '08:27:12', '08:29:29', '08:29:31', '08:45:21', '08:45:41', '08:47:46', '08:56:18', '08:58:46', '09:04:03', '09:36:02', '09:40:28', '09:48:44', '11:03:07', '11:03:22', '11:23:11', '11:40:14', '11:50:18', '12:04:27', '12:04:31', '12:29:26', '13:16:29', '14:11:44', '14:18:39', '14:22:36', '14:25:09', '14:32:43', '14:39:38', '14:46:39', '14:52:49', '15:24:40', '15:29:20', '15:51:44', '15:53:52', '16:17:31', '16:21:10', '16:24:01', '16:25:55', '16:27:58', '16:30:09', '16:35:58', '20:21:02', '21:06:55', '22:02:02', '22:08:58', '22:15:11', '22:17:26', '22:20:15', '22:41:32', '22:43:20', '22:56:51', '23:02:13', '23:02:22', '23:08:47', '23:52:14', '23:52:31'], 'to RUN': ['00:06:33', '01:02:19', '01:12:22', '01:27:12', '01:39:40', '04:14:25', '04:16:54', '05:13:20', '05:23:30', '06:07:08', '06:12:03', '06:15:43', '06:16:20', '06:18:25', '06:36:44', '06:40:21', '06:40:57', '07:16:04', '07:27:36', '07:33:07', '07:39:56', '07:45:52', '08:03:31', '08:09:26', '08:20:49', '08:27:07', '08:27:59', '08:29:29', '08:30:19', '08:45:37', '08:45:57', '08:52:14', '08:56:24', '09:01:30', '09:06:13', '09:36:06', '09:40:44', '09:48:51', '11:03:22', '11:03:23', '11:23:28', '11:44:57', '11:50:36', '12:04:27', '12:04:48', '12:29:43', '13:16:33', '14:18:19', '14:22:00', '14:24:16', '14:26:22', '14:32:44', '14:40:15', '14:46:55', '14:54:26', '15:24:55', '15:29:31', '15:52:59', '15:55:22', '16:17:39', '16:21:40', '16:24:01', '16:26:11', '16:28:08', '16:34:07', '16:35:59', '20:28:28', '21:15:43', '22:05:16', '22:13:08', '22:16:32', '22:17:53', '22:20:15', '22:42:45', '22:45:44', '22:56:51', '23:02:22', '23:07:09', '23:08:56', '23:52:30', '23:53:05']}, 'total': 89}</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>{'detail': {'times': [1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101], 'from STOP': ['00:14:47', '00:28:04', '00:29:00', '00:34:37', '00:39:27', '00:41:18', '00:45:36', '00:46:16', '00:49:20', '00:52:06', '00:52:42', '00:57:20', '01:00:14', '01:08:34', '01:12:22', '01:17:24', '01:21:02', '01:21:12', '01:29:14', '01:29:51', '01:31:05', '01:33:23', '01:34:16', '01:44:11', '03:09:21', '03:12:08', '03:40:33', '03:42:27', '03:45:03', '03:49:19', '03:56:50', '04:00:50', '04:05:00', '04:09:56', '04:34:07', '04:35:22', '04:42:51', '04:54:25', '05:07:27', '05:16:42', '05:19:45', '05:25:37', '05:41:26', '05:47:20', '05:52:26', '05:59:41', '06:39:29', '06:41:17', '06:51:21', '06:54:01', '07:09:00', '07:14:27', '07:15:22', '07:18:57', '07:26:01', '07:35:13', '07:39:56', '07:52:21', '08:13:30', '08:27:41', '08:28:36', '08:30:25', '08:47:46', '09:03:25', '09:05:19', '09:09:17', '09:15:09', '09:27:05', '09:36:02', '09:51:22', '09:54:16', '11:10:33', '11:11:30', '11:12:00', '11:15:55', '11:33:10', '11:33:47', '11:34:24', '11:36:31', '11:38:22', '11:39:21', '11:44:57', '11:45:43', '11:47:05', '11:52:31', '11:54:18', '11:59:45', '12:03:34', '12:04:06', '12:14:07', '12:36:20', '12:47:05', '12:51:08', '12:51:57', '12:56:31', '13:02:24', '13:03:43', '13:07:54', '13:09:32', '13:13:58', '13:26:19'], 'to RUN': ['00:20:16', '00:28:35', '00:29:56', '00:35:57', '00:40:24', '00:41:34', '00:45:40', '00:49:04', '00:49:57', '00:52:22', '00:52:49', '00:57:53', '01:00:22', '01:08:43', '01:12:58', '01:17:33', '01:21:12', '01:25:39', '01:29:27', '01:30:11', '01:31:40', '01:33:23', '01:35:05', '01:44:28', '03:10:03', '03:14:55', '03:40:33', '03:42:27', '03:45:50', '03:49:56', '03:56:52', '04:01:08', '04:05:00', '04:10:12', '04:34:45', '04:42:51', '04:51:28', '04:56:42', '05:10:48', '05:17:25', '05:20:35', '05:25:47', '05:43:24', '05:47:56', '05:52:45', '06:06:32', '06:40:21', '06:42:29', '06:51:21', '06:55:01', '07:09:39', '07:15:05', '07:15:35', '07:19:23', '07:26:23', '07:35:39', '07:39:56', '07:52:38', '08:13:53', '08:28:11', '08:30:09', '08:30:39', '08:48:06', '09:03:41', '09:05:37', '09:09:38', '09:15:09', '09:27:37', '09:36:03', '09:52:07', '09:54:38', '11:11:10', '11:11:47', '11:12:08', '11:16:11', '11:33:39', '11:34:03', '11:34:55', '11:38:13', '11:38:35', '11:39:38', '11:45:37', '11:46:14', '11:48:09', '11:53:41', '11:56:15', '12:03:12', '12:03:34', '12:04:27', '12:15:15', '12:43:25', '12:47:21', '12:51:16', '12:52:26', '12:57:25', '13:02:40', '13:04:23', '13:08:10', '13:10:04', '13:14:20', '13:26:35']}, 'total': 103}</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>109</v>
+      </c>
+      <c r="E74" t="n">
+        <v>165</v>
+      </c>
+      <c r="F74" t="n">
+        <v>139</v>
+      </c>
+      <c r="G74" t="n">
+        <v>80</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>592</v>
+      </c>
+      <c r="J74" t="n">
+        <v>27</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>24</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>122</v>
+      </c>
+      <c r="E75" t="n">
+        <v>94</v>
+      </c>
+      <c r="F75" t="n">
+        <v>118</v>
+      </c>
+      <c r="G75" t="n">
+        <v>129</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>163</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
